--- a/famousbook/static/files/all-bulk-book-data.xlsx
+++ b/famousbook/static/files/all-bulk-book-data.xlsx
@@ -34,7 +34,7 @@
     <t>Pages</t>
   </si>
   <si>
-    <t>Series</t>
+    <t>Genres</t>
   </si>
   <si>
     <t>Language</t>
